--- a/testfiles/Quotes/RFQ QFJB2000163 FUTURE.xlsx
+++ b/testfiles/Quotes/RFQ QFJB2000163 FUTURE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JiaYi.Hong\AppData\Local\Microsoft\Windows\INetCache\Content.Outlook\P393BDVM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SRX\plm\testfiles\Quotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35BD1243-EF08-4C54-ADBB-645D7019788A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C7C715-6FC5-4949-B208-446A8DBF2553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA06130D-A487-41C3-BCB4-42AA85FC8751}"/>
+    <workbookView xWindow="4920" yWindow="2610" windowWidth="19185" windowHeight="9015" xr2:uid="{BA06130D-A487-41C3-BCB4-42AA85FC8751}"/>
   </bookViews>
   <sheets>
     <sheet name="RFQ" sheetId="1" r:id="rId1"/>
@@ -258,9 +258,6 @@
     <t>BAV116W-7-F</t>
   </si>
   <si>
-    <t>Future</t>
-  </si>
-  <si>
     <t>USD</t>
   </si>
   <si>
@@ -337,6 +334,9 @@
   </si>
   <si>
     <t>18</t>
+  </si>
+  <si>
+    <t>FUTURE ELECTRONICS (GST)</t>
   </si>
 </sst>
 </file>
@@ -344,10 +344,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,6 +434,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -481,13 +487,13 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -506,7 +512,7 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -544,6 +550,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -554,6 +561,18 @@
     <cellStyle name="Normal 63 2" xfId="4" xr:uid="{9AE68724-AE67-48FE-8DD1-13C86D397D72}"/>
   </cellStyles>
   <dxfs count="3">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -571,18 +590,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -899,7 +906,7 @@
   <dimension ref="A1:AE10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1073,22 +1080,22 @@
         <v>6000</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="L3" s="19" t="s">
         <v>43</v>
       </c>
       <c r="M3" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="O3" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="O3" s="19" t="s">
-        <v>77</v>
-      </c>
       <c r="P3" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q3" s="19">
         <v>3000</v>
@@ -1097,23 +1104,23 @@
         <v>2.35E-2</v>
       </c>
       <c r="S3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="T3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="W3" s="3"/>
       <c r="X3" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z3" s="12"/>
       <c r="AA3" s="12"/>
@@ -1152,7 +1159,7 @@
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
       <c r="R4" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S4" s="21"/>
       <c r="T4" s="21"/>
@@ -1191,22 +1198,22 @@
         <v>30000</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="L5" s="19" t="s">
         <v>45</v>
       </c>
       <c r="M5" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="N5" s="19" t="s">
         <v>79</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>80</v>
       </c>
       <c r="O5" s="19">
         <v>10000</v>
       </c>
       <c r="P5" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q5" s="19">
         <v>10000</v>
@@ -1215,23 +1222,23 @@
         <v>4.58E-2</v>
       </c>
       <c r="S5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="T5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="U5" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="W5" s="3"/>
       <c r="X5" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y5" s="21" t="s">
         <v>71</v>
-      </c>
-      <c r="Y5" s="21" t="s">
-        <v>72</v>
       </c>
       <c r="Z5" s="21"/>
       <c r="AA5" s="21"/>
@@ -1263,22 +1270,22 @@
         <v>3800</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="L6" s="19" t="s">
         <v>47</v>
       </c>
       <c r="M6" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="N6" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="N6" s="19" t="s">
+      <c r="O6" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="O6" s="19" t="s">
-        <v>83</v>
-      </c>
       <c r="P6" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q6" s="19">
         <v>1000</v>
@@ -1287,23 +1294,23 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="S6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="T6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="U6" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="V6" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="W6" s="3"/>
       <c r="X6" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z6" s="21"/>
       <c r="AA6" s="21"/>
@@ -1335,22 +1342,22 @@
         <v>3800</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="L7" s="19" t="s">
         <v>49</v>
       </c>
       <c r="M7" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="N7" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="N7" s="19" t="s">
+      <c r="O7" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="O7" s="19" t="s">
-        <v>86</v>
-      </c>
       <c r="P7" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q7" s="19">
         <v>20000</v>
@@ -1359,23 +1366,23 @@
         <v>9.3999999999999997E-4</v>
       </c>
       <c r="S7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="T7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="V7" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="W7" s="3"/>
       <c r="X7" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z7" s="21"/>
       <c r="AA7" s="21"/>
@@ -1407,22 +1414,22 @@
         <v>3800</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="L8" s="19" t="s">
         <v>51</v>
       </c>
       <c r="M8" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="N8" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="N8" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="O8" s="19" t="s">
-        <v>88</v>
-      </c>
       <c r="P8" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q8" s="19">
         <v>250</v>
@@ -1431,23 +1438,23 @@
         <v>1.55</v>
       </c>
       <c r="S8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="T8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="U8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="V8" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="W8" s="3"/>
       <c r="X8" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y8" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z8" s="21"/>
       <c r="AA8" s="21"/>
@@ -1456,7 +1463,7 @@
       <c r="AD8" s="21"/>
       <c r="AE8" s="21"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="21"/>
       <c r="B9" s="21" t="s">
         <v>40</v>
@@ -1480,23 +1487,23 @@
       <c r="I9" s="21">
         <v>3800</v>
       </c>
-      <c r="K9" s="19" t="s">
-        <v>63</v>
+      <c r="K9" s="22" t="s">
+        <v>89</v>
       </c>
       <c r="L9" s="19" t="s">
         <v>53</v>
       </c>
       <c r="M9" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="N9" s="19" t="s">
         <v>81</v>
-      </c>
-      <c r="N9" s="19" t="s">
-        <v>82</v>
       </c>
       <c r="O9" s="19">
         <v>1000</v>
       </c>
       <c r="P9" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q9" s="19">
         <v>4000</v>
@@ -1505,23 +1512,23 @@
         <v>0.49</v>
       </c>
       <c r="S9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="T9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="U9" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="V9" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="W9" s="3"/>
       <c r="X9" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y9" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z9" s="21"/>
       <c r="AA9" s="21"/>
@@ -1553,22 +1560,22 @@
         <v>30000</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="L10" s="19" t="s">
         <v>62</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O10" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P10" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q10" s="19">
         <v>3000</v>
@@ -1577,23 +1584,23 @@
         <v>2.12E-2</v>
       </c>
       <c r="S10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="T10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="U10" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="V10" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="W10" s="3"/>
       <c r="X10" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z10" s="21"/>
       <c r="AA10" s="21"/>
@@ -1604,14 +1611,14 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:AE10" xr:uid="{682AB51F-64BF-4EDC-B2ED-9C5A84A37A54}"/>
-  <conditionalFormatting sqref="L2">
-    <cfRule type="duplicateValues" dxfId="2" priority="9"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/testfiles/Quotes/RFQ QFJB2000163 FUTURE.xlsx
+++ b/testfiles/Quotes/RFQ QFJB2000163 FUTURE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SRX\plm\testfiles\Quotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C7C715-6FC5-4949-B208-446A8DBF2553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F80D49-744E-4010-A6F2-2DAC8FE3BB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="2610" windowWidth="19185" windowHeight="9015" xr2:uid="{BA06130D-A487-41C3-BCB4-42AA85FC8751}"/>
+    <workbookView xWindow="5835" yWindow="1200" windowWidth="22200" windowHeight="11760" xr2:uid="{BA06130D-A487-41C3-BCB4-42AA85FC8751}"/>
   </bookViews>
   <sheets>
     <sheet name="RFQ" sheetId="1" r:id="rId1"/>
@@ -906,7 +906,7 @@
   <dimension ref="A1:AE10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
